--- a/tb_web18/excel/upload_format.xlsx
+++ b/tb_web18/excel/upload_format.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
   <si>
     <t>nim</t>
   </si>
@@ -52,148 +52,160 @@
     <t>D</t>
   </si>
   <si>
-    <t>E31160622</t>
-  </si>
-  <si>
-    <t>Gilang Anugrah</t>
-  </si>
-  <si>
-    <t>E31160678</t>
-  </si>
-  <si>
-    <t>Rizka Nurul Khakiki</t>
-  </si>
-  <si>
-    <t>E31160686</t>
-  </si>
-  <si>
-    <t>Laras Devi Yanti</t>
-  </si>
-  <si>
-    <t>E31160690</t>
-  </si>
-  <si>
-    <t>Zainal Abidin</t>
-  </si>
-  <si>
-    <t>E31160702</t>
-  </si>
-  <si>
-    <t>M. Saiful Rizal</t>
-  </si>
-  <si>
-    <t>E31160707</t>
-  </si>
-  <si>
-    <t>M. Taufik Hidayat</t>
-  </si>
-  <si>
-    <t>E31160722</t>
-  </si>
-  <si>
-    <t>Yusril Fathurrohman</t>
-  </si>
-  <si>
-    <t>E31160733</t>
-  </si>
-  <si>
-    <t>Hisyam Haidar Amru</t>
-  </si>
-  <si>
-    <t>E31160786</t>
-  </si>
-  <si>
-    <t>Nanda Septian Ardika</t>
-  </si>
-  <si>
-    <t>E31160787</t>
-  </si>
-  <si>
-    <t>Ghozi Fadhillah Himma</t>
-  </si>
-  <si>
-    <t>E31160798</t>
-  </si>
-  <si>
-    <t>Lukman Harun</t>
-  </si>
-  <si>
-    <t>E31160852</t>
-  </si>
-  <si>
-    <t>Mohammad Imran</t>
-  </si>
-  <si>
-    <t>E31160880</t>
-  </si>
-  <si>
-    <t>Dimas Feby Pranata</t>
-  </si>
-  <si>
-    <t>E31160901</t>
-  </si>
-  <si>
-    <t>Ariwibowo Makruf</t>
-  </si>
-  <si>
-    <t>E31160910</t>
-  </si>
-  <si>
-    <t>Rizky Akbar August Pradana</t>
-  </si>
-  <si>
-    <t>E31160935</t>
-  </si>
-  <si>
-    <t>Risang Ayu Larasati</t>
-  </si>
-  <si>
-    <t>E31161010</t>
-  </si>
-  <si>
-    <t>Siti Sarifatul Lailiyah</t>
-  </si>
-  <si>
-    <t>E31161033</t>
-  </si>
-  <si>
-    <t>Ayu Diyah Purwanti</t>
-  </si>
-  <si>
-    <t>E31161039</t>
-  </si>
-  <si>
-    <t>Ayu Diah Fitri Megawati</t>
-  </si>
-  <si>
-    <t>E31161043</t>
-  </si>
-  <si>
-    <t>Ahmad Hidayat</t>
-  </si>
-  <si>
-    <t>E31161045</t>
-  </si>
-  <si>
-    <t>Chelsea Ramadanti Anisah Putri</t>
-  </si>
-  <si>
-    <t>E31161048</t>
-  </si>
-  <si>
-    <t>Ahmad Fatkhul Arifin</t>
-  </si>
-  <si>
-    <t>E31161055</t>
-  </si>
-  <si>
-    <t>Jeffri Riaviandy</t>
-  </si>
-  <si>
-    <t>E31161081</t>
-  </si>
-  <si>
-    <t>Albertus Guntur Adi Santoso</t>
+    <t>E31150493</t>
+  </si>
+  <si>
+    <t>ARQISTA DWI SEPTYA MUTIARA</t>
+  </si>
+  <si>
+    <t>E31151409</t>
+  </si>
+  <si>
+    <t>Edho Dickey Pharanza Junior</t>
+  </si>
+  <si>
+    <t>E31151415</t>
+  </si>
+  <si>
+    <t>Denny Setiady Prabowo</t>
+  </si>
+  <si>
+    <t>E31161567</t>
+  </si>
+  <si>
+    <t>Lutfa Ainul Hasanah</t>
+  </si>
+  <si>
+    <t>E31161636</t>
+  </si>
+  <si>
+    <t>Akhyar Nur Rahmadhan</t>
+  </si>
+  <si>
+    <t>E31161642</t>
+  </si>
+  <si>
+    <t>Moh Azman</t>
+  </si>
+  <si>
+    <t>E31161652</t>
+  </si>
+  <si>
+    <t>Decha Putri Landungsari</t>
+  </si>
+  <si>
+    <t>E31161689</t>
+  </si>
+  <si>
+    <t>Abdillah Syaifuddin Basarsah</t>
+  </si>
+  <si>
+    <t>E31161703</t>
+  </si>
+  <si>
+    <t>Lilik Widayanti</t>
+  </si>
+  <si>
+    <t>E31161707</t>
+  </si>
+  <si>
+    <t>Nurul Lailatul Jannah</t>
+  </si>
+  <si>
+    <t>E31161709</t>
+  </si>
+  <si>
+    <t>Galung Reinan Artanca</t>
+  </si>
+  <si>
+    <t>E31161719</t>
+  </si>
+  <si>
+    <t>Reza Septia Safirah</t>
+  </si>
+  <si>
+    <t>E31161776</t>
+  </si>
+  <si>
+    <t>Wildan Faizal Imawan</t>
+  </si>
+  <si>
+    <t>E31161812</t>
+  </si>
+  <si>
+    <t>Defredo Oyvind Yogaprawira</t>
+  </si>
+  <si>
+    <t>E31161816</t>
+  </si>
+  <si>
+    <t>Dhimas Ulfa Lathifah</t>
+  </si>
+  <si>
+    <t>E31161833</t>
+  </si>
+  <si>
+    <t>Ivanda Afrizal Aldifriansyah</t>
+  </si>
+  <si>
+    <t>E31161956</t>
+  </si>
+  <si>
+    <t>Indah Nur Rizqi Rahmadani</t>
+  </si>
+  <si>
+    <t>E31161985</t>
+  </si>
+  <si>
+    <t>Nanda Wyapeksa</t>
+  </si>
+  <si>
+    <t>E31162023</t>
+  </si>
+  <si>
+    <t>Fadillah Sari</t>
+  </si>
+  <si>
+    <t>E31162041</t>
+  </si>
+  <si>
+    <t>Fandi Ahmad Rifqi</t>
+  </si>
+  <si>
+    <t>E31162061</t>
+  </si>
+  <si>
+    <t>Rifqi Widiarko</t>
+  </si>
+  <si>
+    <t>E31162081</t>
+  </si>
+  <si>
+    <t>Nailes Tabuni</t>
+  </si>
+  <si>
+    <t>E31162092</t>
+  </si>
+  <si>
+    <t>Khoirul Umam</t>
+  </si>
+  <si>
+    <t>E31180001</t>
+  </si>
+  <si>
+    <t>Nariratih Anggraeni</t>
+  </si>
+  <si>
+    <t>E31180039</t>
+  </si>
+  <si>
+    <t>Branjas Setianto Nugroho</t>
+  </si>
+  <si>
+    <t>E31180040</t>
+  </si>
+  <si>
+    <t>Haries Gatot Andrianto</t>
   </si>
 </sst>
 </file>
@@ -252,7 +264,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -267,7 +279,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
@@ -573,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D25"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,31 +613,31 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="5">
         <v>2</v>
       </c>
       <c r="D2" s="5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="5">
         <v>2</v>
       </c>
-      <c r="D3" s="8">
-        <v>2</v>
+      <c r="D3" s="6">
+        <v>4</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>4</v>
@@ -637,17 +648,17 @@
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="5">
         <v>2</v>
       </c>
-      <c r="D4" s="8">
-        <v>2</v>
+      <c r="D4" s="6">
+        <v>4</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>2</v>
@@ -664,17 +675,17 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="5">
         <v>2</v>
       </c>
-      <c r="D5" s="8">
-        <v>2</v>
+      <c r="D5" s="6">
+        <v>4</v>
       </c>
       <c r="G5" s="4">
         <v>2</v>
@@ -691,17 +702,17 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="5">
         <v>2</v>
       </c>
-      <c r="D6" s="8">
-        <v>2</v>
+      <c r="D6" s="6">
+        <v>4</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -714,17 +725,17 @@
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="5">
         <v>2</v>
       </c>
-      <c r="D7" s="8">
-        <v>2</v>
+      <c r="D7" s="6">
+        <v>4</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -737,17 +748,17 @@
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="5">
         <v>2</v>
       </c>
-      <c r="D8" s="8">
-        <v>2</v>
+      <c r="D8" s="6">
+        <v>4</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -760,241 +771,269 @@
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="5">
         <v>2</v>
       </c>
-      <c r="D9" s="8">
-        <v>2</v>
+      <c r="D9" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="5">
         <v>2</v>
       </c>
-      <c r="D10" s="8">
-        <v>2</v>
+      <c r="D10" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>31</v>
       </c>
       <c r="C11" s="5">
         <v>2</v>
       </c>
-      <c r="D11" s="8">
-        <v>2</v>
+      <c r="D11" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="5">
         <v>2</v>
       </c>
-      <c r="D12" s="8">
-        <v>2</v>
+      <c r="D12" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="5">
         <v>2</v>
       </c>
-      <c r="D13" s="8">
-        <v>2</v>
+      <c r="D13" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
         <v>37</v>
       </c>
       <c r="C14" s="5">
         <v>2</v>
       </c>
-      <c r="D14" s="8">
-        <v>2</v>
+      <c r="D14" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="5">
         <v>2</v>
       </c>
-      <c r="D15" s="8">
-        <v>2</v>
+      <c r="D15" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="6" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="5">
         <v>2</v>
       </c>
-      <c r="D16" s="8">
-        <v>2</v>
+      <c r="D16" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="6" t="s">
         <v>43</v>
       </c>
       <c r="C17" s="5">
         <v>2</v>
       </c>
-      <c r="D17" s="8">
-        <v>2</v>
+      <c r="D17" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="6" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="5">
         <v>2</v>
       </c>
-      <c r="D18" s="8">
-        <v>2</v>
+      <c r="D18" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="6" t="s">
         <v>47</v>
       </c>
       <c r="C19" s="5">
         <v>2</v>
       </c>
-      <c r="D19" s="8">
-        <v>2</v>
+      <c r="D19" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="6" t="s">
         <v>49</v>
       </c>
       <c r="C20" s="5">
         <v>2</v>
       </c>
-      <c r="D20" s="8">
-        <v>2</v>
+      <c r="D20" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="6" t="s">
         <v>51</v>
       </c>
       <c r="C21" s="5">
         <v>2</v>
       </c>
-      <c r="D21" s="8">
-        <v>2</v>
+      <c r="D21" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="6" t="s">
         <v>53</v>
       </c>
       <c r="C22" s="5">
         <v>2</v>
       </c>
-      <c r="D22" s="8">
-        <v>2</v>
+      <c r="D22" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C23" s="5">
         <v>2</v>
       </c>
-      <c r="D23" s="8">
-        <v>2</v>
+      <c r="D23" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="6" t="s">
         <v>57</v>
       </c>
       <c r="C24" s="5">
         <v>2</v>
       </c>
-      <c r="D24" s="8">
-        <v>2</v>
+      <c r="D24" s="6">
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="6" t="s">
         <v>59</v>
       </c>
       <c r="C25" s="6">
         <v>2</v>
       </c>
-      <c r="D25" s="8">
-        <v>2</v>
+      <c r="D25" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="6">
+        <v>2</v>
+      </c>
+      <c r="D26" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="6">
+        <v>2</v>
+      </c>
+      <c r="D27" s="6">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
